--- a/uploads/extracciones/Example.xlsx
+++ b/uploads/extracciones/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x134102\Downloads\grusys-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEBAC5D-5653-4230-9B29-F3BA40D144BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8794E154-83B5-4E81-B0F1-1BBA4835FEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3792" yWindow="1128" windowWidth="17280" windowHeight="8976" tabRatio="606" activeTab="3" xr2:uid="{4CFA6121-B481-4121-B0C5-F1E3640F7FDC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="606" activeTab="2" xr2:uid="{4CFA6121-B481-4121-B0C5-F1E3640F7FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="CSYSO" sheetId="2" r:id="rId1"/>
@@ -864,7 +864,7 @@
   <dimension ref="A1:BA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,7 +980,7 @@
         <v>45715</v>
       </c>
       <c r="G2" s="32">
-        <v>45715</v>
+        <v>44984</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>16</v>
@@ -4081,8 +4081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF788C3E-77E3-4C3A-A29D-A62A0C23BF4F}">
   <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4278,7 +4278,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="32">
-        <v>45715</v>
+        <v>44984</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>24</v>
@@ -4343,9 +4343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42DBAF4-8B3D-428F-8118-8AED264BE8A1}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4480,25 +4480,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_activity xmlns="32077590-fc5b-4237-82da-2dd6f73b345e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C19E968D034F77449748D740F2B753DC" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0605bae6d38505a8ef848857e76ebd6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="31580b42-fe88-41ba-b292-17d05e9e6b76" xmlns:ns4="32077590-fc5b-4237-82da-2dd6f73b345e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d747840030b93b86c1134f9e5dfc647" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4768,10 +4749,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="32077590-fc5b-4237-82da-2dd6f73b345e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{836292F1-A02D-4A16-B3D7-2DA6170F1DDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8368A2C5-773A-4729-A2B1-102DED59C370}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="31580b42-fe88-41ba-b292-17d05e9e6b76"/>
+    <ds:schemaRef ds:uri="32077590-fc5b-4237-82da-2dd6f73b345e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4795,21 +4807,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8368A2C5-773A-4729-A2B1-102DED59C370}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{836292F1-A02D-4A16-B3D7-2DA6170F1DDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="31580b42-fe88-41ba-b292-17d05e9e6b76"/>
-    <ds:schemaRef ds:uri="32077590-fc5b-4237-82da-2dd6f73b345e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>